--- a/設計/DB設計.xlsx
+++ b/設計/DB設計.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0901JP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0901JP\Desktop\Tsubuyaki\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DD679A-622D-4DA4-A617-E722E74EB219}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F96314-FDA2-4EF6-B7FF-486B14C21F10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2" xr2:uid="{336F3059-B879-4CE2-A2AA-8FFA65C9DBB6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{336F3059-B879-4CE2-A2AA-8FFA65C9DBB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DB概要" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -225,6 +225,14 @@
   </si>
   <si>
     <t>post_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -316,8 +324,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6281BAFC-2721-4F22-81C4-F0C19449BFDA}" name="テーブル13" displayName="テーブル13" ref="B4:I10" totalsRowShown="0">
-  <autoFilter ref="B4:I10" xr:uid="{F2492201-B032-4F1F-A2AB-48BD7F53EC5D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6281BAFC-2721-4F22-81C4-F0C19449BFDA}" name="テーブル13" displayName="テーブル13" ref="B4:I11" totalsRowShown="0">
+  <autoFilter ref="B4:I11" xr:uid="{F2492201-B032-4F1F-A2AB-48BD7F53EC5D}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{BBD92709-3B3B-41B9-9250-88019B2C0FD8}" name="No"/>
     <tableColumn id="2" xr3:uid="{67D986FE-5211-4AAB-9492-7F74C2171BBA}" name="PK"/>
@@ -718,10 +726,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B6B346-B1E2-4F63-A971-61D520804FF8}">
-  <dimension ref="B2:I10"/>
+  <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:I10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -844,24 +852,20 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
         <v>31</v>
@@ -870,14 +874,32 @@
         <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -886,7 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3AA008-6A27-4B07-B6B2-1C7B07684FAF}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>

--- a/設計/DB設計.xlsx
+++ b/設計/DB設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0901JP\Desktop\Tsubuyaki\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F96314-FDA2-4EF6-B7FF-486B14C21F10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCA0625-9CF7-4301-B8DC-3C3D6192FE94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{336F3059-B879-4CE2-A2AA-8FFA65C9DBB6}"/>
   </bookViews>
@@ -729,7 +729,7 @@
   <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/設計/DB設計.xlsx
+++ b/設計/DB設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0901JP\Desktop\Tsubuyaki\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCA0625-9CF7-4301-B8DC-3C3D6192FE94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FDB3AF-D9E1-4529-9A80-1E972F39AE14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{336F3059-B879-4CE2-A2AA-8FFA65C9DBB6}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -233,6 +233,10 @@
   </si>
   <si>
     <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニークキー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -729,7 +733,7 @@
   <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -812,7 +816,9 @@
       <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7">

--- a/設計/DB設計.xlsx
+++ b/設計/DB設計.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0901JP\Desktop\Tsubuyaki\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FDB3AF-D9E1-4529-9A80-1E972F39AE14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF753A0-29CD-4A7C-AC90-9CB74C9FB28E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{336F3059-B879-4CE2-A2AA-8FFA65C9DBB6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" firstSheet="1" activeTab="3" xr2:uid="{336F3059-B879-4CE2-A2AA-8FFA65C9DBB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DB概要" sheetId="1" r:id="rId1"/>
     <sheet name="1.account" sheetId="2" r:id="rId2"/>
     <sheet name="2.post" sheetId="3" r:id="rId3"/>
+    <sheet name="3.follow" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -237,6 +238,24 @@
   </si>
   <si>
     <t>ユニークキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>follow_account_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>followテーブル定義</t>
+    <rPh sb="10" eb="12">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントテーブルを参照</t>
+    <rPh sb="10" eb="12">
+      <t>サンショウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -294,7 +313,10 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -337,7 +359,7 @@
     <tableColumn id="8" xr3:uid="{274BD99A-0634-4B5C-9E37-B95ECD29B354}" name="カラム名"/>
     <tableColumn id="9" xr3:uid="{81F9A747-E65E-42BD-BE53-CB92C42BD0F3}" name="データ型"/>
     <tableColumn id="10" xr3:uid="{8940CC76-FF2E-45AD-8B6B-8FC42B607124}" name="NOT_NULL"/>
-    <tableColumn id="13" xr3:uid="{C7682FB0-EF67-49D9-811F-92E792D8CECC}" name="DEFAULT" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{C7682FB0-EF67-49D9-811F-92E792D8CECC}" name="DEFAULT" dataDxfId="2"/>
     <tableColumn id="11" xr3:uid="{AE9E5919-169A-44E3-88EC-3501E818C9DD}" name="備考"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -354,8 +376,25 @@
     <tableColumn id="8" xr3:uid="{53B4D16B-4278-43B4-94C7-E3CAEA42E50C}" name="カラム名"/>
     <tableColumn id="9" xr3:uid="{4658DC34-2A70-4DC2-A66E-71F0E6D6743B}" name="データ型"/>
     <tableColumn id="10" xr3:uid="{54464A7E-7614-4B1A-91C0-F84AF60E7623}" name="NOT_NULL"/>
-    <tableColumn id="12" xr3:uid="{65348C39-B10D-4A48-9E5A-92D9BB8F532D}" name="DEFAULT" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{65348C39-B10D-4A48-9E5A-92D9BB8F532D}" name="DEFAULT" dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{D1A575C9-8F5C-4A16-9CE4-5C40CD442BFE}" name="備考"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{757CC299-A0B0-40F7-B3B3-4B98675A0151}" name="テーブル135" displayName="テーブル135" ref="B4:I6" totalsRowShown="0">
+  <autoFilter ref="B4:I6" xr:uid="{F2492201-B032-4F1F-A2AB-48BD7F53EC5D}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{A74A23C6-1990-43B8-85D1-E91191CBEA3A}" name="No"/>
+    <tableColumn id="2" xr3:uid="{DA1ACAB8-38B1-4AD8-BA00-851C4A3DC35A}" name="PK"/>
+    <tableColumn id="3" xr3:uid="{DC964331-7AEE-4123-8777-4415EAB9880D}" name="FK"/>
+    <tableColumn id="8" xr3:uid="{FE0EC87B-0D3A-4A58-AAB0-C9D1FDCB63ED}" name="カラム名"/>
+    <tableColumn id="9" xr3:uid="{7CD22B78-6807-4159-BDAF-11A9F88AB1AA}" name="データ型"/>
+    <tableColumn id="10" xr3:uid="{43214023-D566-4359-A05D-4D53065206DF}" name="NOT_NULL"/>
+    <tableColumn id="13" xr3:uid="{DA7C082E-EA62-4E5A-BD87-03F4B6354E45}" name="DEFAULT" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{A2D7FF0D-D8B8-4A45-9EB6-4F51E9EBED89}" name="備考"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -732,7 +771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B6B346-B1E2-4F63-A971-61D520804FF8}">
   <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1055,4 +1094,105 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370F17F3-1285-411F-8F37-508F6A8C000F}">
+  <dimension ref="B2:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/設計/DB設計.xlsx
+++ b/設計/DB設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0901JP\Desktop\Tsubuyaki\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF753A0-29CD-4A7C-AC90-9CB74C9FB28E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005AB5DD-7C89-4619-B66B-AD74B95A7BCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" firstSheet="1" activeTab="3" xr2:uid="{336F3059-B879-4CE2-A2AA-8FFA65C9DBB6}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -256,6 +256,18 @@
     <rPh sb="10" eb="12">
       <t>サンショウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -384,8 +396,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{757CC299-A0B0-40F7-B3B3-4B98675A0151}" name="テーブル135" displayName="テーブル135" ref="B4:I6" totalsRowShown="0">
-  <autoFilter ref="B4:I6" xr:uid="{F2492201-B032-4F1F-A2AB-48BD7F53EC5D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{757CC299-A0B0-40F7-B3B3-4B98675A0151}" name="テーブル135" displayName="テーブル135" ref="B4:I7" totalsRowShown="0">
+  <autoFilter ref="B4:I7" xr:uid="{F2492201-B032-4F1F-A2AB-48BD7F53EC5D}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A74A23C6-1990-43B8-85D1-E91191CBEA3A}" name="No"/>
     <tableColumn id="2" xr3:uid="{DA1ACAB8-38B1-4AD8-BA00-851C4A3DC35A}" name="PK"/>
@@ -953,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3AA008-6A27-4B07-B6B2-1C7B07684FAF}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1098,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370F17F3-1285-411F-8F37-508F6A8C000F}">
-  <dimension ref="B2:I6"/>
+  <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1112,7 +1124,7 @@
     <col min="5" max="5" width="25.375" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="28.75" customWidth="1"/>
     <col min="9" max="9" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1151,9 +1163,7 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
         <v>18</v>
@@ -1185,6 +1195,23 @@
       <c r="H6" s="1"/>
       <c r="I6" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/設計/DB設計.xlsx
+++ b/設計/DB設計.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0901JP\Desktop\Tsubuyaki\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005AB5DD-7C89-4619-B66B-AD74B95A7BCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55959F80-E19E-4783-91F8-68C3F78B6D93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" firstSheet="1" activeTab="3" xr2:uid="{336F3059-B879-4CE2-A2AA-8FFA65C9DBB6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" firstSheet="1" activeTab="4" xr2:uid="{336F3059-B879-4CE2-A2AA-8FFA65C9DBB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DB概要" sheetId="1" r:id="rId1"/>
     <sheet name="1.account" sheetId="2" r:id="rId2"/>
     <sheet name="2.post" sheetId="3" r:id="rId3"/>
     <sheet name="3.follow" sheetId="5" r:id="rId4"/>
+    <sheet name="4.favorite" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -268,6 +269,27 @@
   </si>
   <si>
     <t>DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>favoriteテーブル定義</t>
+    <rPh sb="12" eb="14">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accountテーブルを参照</t>
+    <rPh sb="12" eb="14">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Postテーブルを参照</t>
+    <rPh sb="9" eb="11">
+      <t>サンショウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -325,7 +347,10 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -371,7 +396,7 @@
     <tableColumn id="8" xr3:uid="{274BD99A-0634-4B5C-9E37-B95ECD29B354}" name="カラム名"/>
     <tableColumn id="9" xr3:uid="{81F9A747-E65E-42BD-BE53-CB92C42BD0F3}" name="データ型"/>
     <tableColumn id="10" xr3:uid="{8940CC76-FF2E-45AD-8B6B-8FC42B607124}" name="NOT_NULL"/>
-    <tableColumn id="13" xr3:uid="{C7682FB0-EF67-49D9-811F-92E792D8CECC}" name="DEFAULT" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{C7682FB0-EF67-49D9-811F-92E792D8CECC}" name="DEFAULT" dataDxfId="3"/>
     <tableColumn id="11" xr3:uid="{AE9E5919-169A-44E3-88EC-3501E818C9DD}" name="備考"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -388,7 +413,7 @@
     <tableColumn id="8" xr3:uid="{53B4D16B-4278-43B4-94C7-E3CAEA42E50C}" name="カラム名"/>
     <tableColumn id="9" xr3:uid="{4658DC34-2A70-4DC2-A66E-71F0E6D6743B}" name="データ型"/>
     <tableColumn id="10" xr3:uid="{54464A7E-7614-4B1A-91C0-F84AF60E7623}" name="NOT_NULL"/>
-    <tableColumn id="12" xr3:uid="{65348C39-B10D-4A48-9E5A-92D9BB8F532D}" name="DEFAULT" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{65348C39-B10D-4A48-9E5A-92D9BB8F532D}" name="DEFAULT" dataDxfId="2"/>
     <tableColumn id="11" xr3:uid="{D1A575C9-8F5C-4A16-9CE4-5C40CD442BFE}" name="備考"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -405,8 +430,25 @@
     <tableColumn id="8" xr3:uid="{FE0EC87B-0D3A-4A58-AAB0-C9D1FDCB63ED}" name="カラム名"/>
     <tableColumn id="9" xr3:uid="{7CD22B78-6807-4159-BDAF-11A9F88AB1AA}" name="データ型"/>
     <tableColumn id="10" xr3:uid="{43214023-D566-4359-A05D-4D53065206DF}" name="NOT_NULL"/>
-    <tableColumn id="13" xr3:uid="{DA7C082E-EA62-4E5A-BD87-03F4B6354E45}" name="DEFAULT" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{DA7C082E-EA62-4E5A-BD87-03F4B6354E45}" name="DEFAULT" dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{A2D7FF0D-D8B8-4A45-9EB6-4F51E9EBED89}" name="備考"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F8C647D3-A8F2-40BF-8430-8052C7A18965}" name="テーブル1356" displayName="テーブル1356" ref="B4:I7" totalsRowShown="0">
+  <autoFilter ref="B4:I7" xr:uid="{F2492201-B032-4F1F-A2AB-48BD7F53EC5D}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{38A370FE-782F-42CA-AFF7-39EC40275A20}" name="No"/>
+    <tableColumn id="2" xr3:uid="{367EF7CC-FA2A-4CE8-9FE0-30ACEF36423E}" name="PK"/>
+    <tableColumn id="3" xr3:uid="{5A5C9630-161B-4493-9A54-E7977E364C1C}" name="FK"/>
+    <tableColumn id="8" xr3:uid="{4AB8B14B-8962-425D-9950-7994FD808918}" name="カラム名"/>
+    <tableColumn id="9" xr3:uid="{CECD9538-DF6B-486A-91C5-C18E3C370E1B}" name="データ型"/>
+    <tableColumn id="10" xr3:uid="{AEF8CD39-2EAA-438A-8791-E6F1240135AE}" name="NOT_NULL"/>
+    <tableColumn id="13" xr3:uid="{4EB26AE2-2DBD-4155-AC83-3728E4EB2F8A}" name="DEFAULT" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{D1D0B5D4-8542-4593-A280-2BC375E08BF5}" name="備考"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -966,7 +1008,7 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1112,7 +1154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370F17F3-1285-411F-8F37-508F6A8C000F}">
   <dimension ref="B2:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -1222,4 +1264,125 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A002155C-CA7F-4000-8755-AD2CEF390064}">
+  <dimension ref="B2:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="28.75" customWidth="1"/>
+    <col min="9" max="9" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/設計/DB設計.xlsx
+++ b/設計/DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0901JP\Desktop\Tsubuyaki\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55959F80-E19E-4783-91F8-68C3F78B6D93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1500D995-32DD-4365-A7BF-78300C2D5F99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" firstSheet="1" activeTab="4" xr2:uid="{336F3059-B879-4CE2-A2AA-8FFA65C9DBB6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" firstSheet="1" activeTab="3" xr2:uid="{336F3059-B879-4CE2-A2AA-8FFA65C9DBB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DB概要" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="50">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -290,6 +290,10 @@
     <rPh sb="9" eb="11">
       <t>サンショウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1154,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370F17F3-1285-411F-8F37-508F6A8C000F}">
   <dimension ref="B2:I7"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1205,7 +1209,9 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
         <v>18</v>
@@ -1270,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A002155C-CA7F-4000-8755-AD2CEF390064}">
   <dimension ref="B2:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1321,7 +1327,9 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>

--- a/設計/DB設計.xlsx
+++ b/設計/DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0901JP\Desktop\Tsubuyaki\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1500D995-32DD-4365-A7BF-78300C2D5F99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C1AED9-384E-49BD-8AC7-999EDF22ABFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" firstSheet="1" activeTab="3" xr2:uid="{336F3059-B879-4CE2-A2AA-8FFA65C9DBB6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{336F3059-B879-4CE2-A2AA-8FFA65C9DBB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DB概要" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="56">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -294,6 +294,51 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>follow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォロー情報テーブル</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入り情報テーブル</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つぶやきに関するお気に入りを管理</t>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザのフォロー情報を管理</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>favorite</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -378,8 +423,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6509B87-C7F3-4926-92AE-D731C7F2E841}" name="テーブル1" displayName="テーブル1" ref="B4:E6" totalsRowShown="0">
-  <autoFilter ref="B4:E6" xr:uid="{BB1ED91A-CB1A-4D6C-A2D9-AA6E34B6717B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6509B87-C7F3-4926-92AE-D731C7F2E841}" name="テーブル1" displayName="テーブル1" ref="B4:E8" totalsRowShown="0">
+  <autoFilter ref="B4:E8" xr:uid="{BB1ED91A-CB1A-4D6C-A2D9-AA6E34B6717B}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{85B5FE02-3F33-4037-9617-440D93082EA6}" name="No"/>
     <tableColumn id="2" xr3:uid="{C464AEA7-FA0F-4F49-9689-78D085744E28}" name="物理名"/>
@@ -755,16 +800,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529C50F7-0C11-49B7-A781-D294949281FF}">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="4" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="46.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -813,6 +859,34 @@
       </c>
       <c r="E6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -829,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B6B346-B1E2-4F63-A971-61D520804FF8}">
   <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -883,9 +957,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" t="s">
         <v>18</v>
       </c>
@@ -901,9 +973,7 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="E6" t="s">
         <v>19</v>
       </c>
@@ -1011,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3AA008-6A27-4B07-B6B2-1C7B07684FAF}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1021,7 +1091,7 @@
     <col min="3" max="3" width="7.125" customWidth="1"/>
     <col min="4" max="4" width="6.375" customWidth="1"/>
     <col min="5" max="5" width="25.375" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="30.25" customWidth="1"/>
     <col min="9" max="9" width="16.125" customWidth="1"/>
@@ -1158,7 +1228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370F17F3-1285-411F-8F37-508F6A8C000F}">
   <dimension ref="B2:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1276,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A002155C-CA7F-4000-8755-AD2CEF390064}">
   <dimension ref="B2:I7"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
